--- a/Industry/201612-201908/HKD/MILLION/Analysis_83_16 - Lighting_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_83_16 - Lighting_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="1152" yWindow="1152"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -27654,6 +27655,908 @@
         <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" t="n">
+        <v>9488.138999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9740.888999999999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.664</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6051.918</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8893.637000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-8.698</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5275.141</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-12.835</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+      <c r="O2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3152.227</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3101.96</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.595</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1657.282</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2540.304</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-18.106</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1582.761</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-4.497</v>
+      </c>
+      <c r="K3" t="n">
+        <v>33.223</v>
+      </c>
+      <c r="L3" t="n">
+        <v>31.845</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27.384</v>
+      </c>
+      <c r="N3" t="n">
+        <v>28.563</v>
+      </c>
+      <c r="O3" t="n">
+        <v>30.004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1240.805</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1241.936</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="F4" t="n">
+        <v>849.985</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1372.143</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10.484</v>
+      </c>
+      <c r="I4" t="n">
+        <v>936.692</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10.201</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13.077</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14.045</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15.428</v>
+      </c>
+      <c r="O4" t="n">
+        <v>17.757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1792.81</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2109.066</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1519.513</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1945.95</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-7.734</v>
+      </c>
+      <c r="I5" t="n">
+        <v>888.967</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-41.497</v>
+      </c>
+      <c r="K5" t="n">
+        <v>18.895</v>
+      </c>
+      <c r="L5" t="n">
+        <v>21.652</v>
+      </c>
+      <c r="M5" t="n">
+        <v>25.108</v>
+      </c>
+      <c r="N5" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="O5" t="n">
+        <v>16.852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" t="n">
+        <v>412.087</v>
+      </c>
+      <c r="D6" t="n">
+        <v>404.962</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1.729</v>
+      </c>
+      <c r="F6" t="n">
+        <v>324.368</v>
+      </c>
+      <c r="G6" t="n">
+        <v>518.903</v>
+      </c>
+      <c r="H6" t="n">
+        <v>28.136</v>
+      </c>
+      <c r="I6" t="n">
+        <v>368.89</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13.726</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.343</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.157</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.835</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6.993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" t="n">
+        <v>687.804</v>
+      </c>
+      <c r="D7" t="n">
+        <v>784.0410000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13.992</v>
+      </c>
+      <c r="F7" t="n">
+        <v>510.659</v>
+      </c>
+      <c r="G7" t="n">
+        <v>750.0359999999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-4.337</v>
+      </c>
+      <c r="I7" t="n">
+        <v>334.935</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-34.411</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.249</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8.048999999999999</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8.438000000000001</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.433</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6.349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" t="n">
+        <v>568.3630000000001</v>
+      </c>
+      <c r="D8" t="n">
+        <v>441.136</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-22.385</v>
+      </c>
+      <c r="F8" t="n">
+        <v>239.071</v>
+      </c>
+      <c r="G8" t="n">
+        <v>371.133</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-15.869</v>
+      </c>
+      <c r="I8" t="n">
+        <v>273.31</v>
+      </c>
+      <c r="J8" t="n">
+        <v>14.322</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.529</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.173</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5.181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" t="n">
+        <v>600.75</v>
+      </c>
+      <c r="D9" t="n">
+        <v>547.605</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-8.846</v>
+      </c>
+      <c r="F9" t="n">
+        <v>283.216</v>
+      </c>
+      <c r="G9" t="n">
+        <v>403.809</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-26.259</v>
+      </c>
+      <c r="I9" t="n">
+        <v>244.659</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-13.614</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.332</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5.622</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4.638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" t="n">
+        <v>75.43899999999999</v>
+      </c>
+      <c r="D10" t="n">
+        <v>85.17700000000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12.909</v>
+      </c>
+      <c r="F10" t="n">
+        <v>53.677</v>
+      </c>
+      <c r="G10" t="n">
+        <v>96.105</v>
+      </c>
+      <c r="H10" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="I10" t="n">
+        <v>123.487</v>
+      </c>
+      <c r="J10" t="n">
+        <v>130.056</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.874</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.887</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.081</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" t="n">
+        <v>218.745</v>
+      </c>
+      <c r="D11" t="n">
+        <v>238.789</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.163</v>
+      </c>
+      <c r="F11" t="n">
+        <v>139.118</v>
+      </c>
+      <c r="G11" t="n">
+        <v>201.005</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-15.823</v>
+      </c>
+      <c r="I11" t="n">
+        <v>112.513</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-19.124</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.305</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.451</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.299</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" t="n">
+        <v>288.266</v>
+      </c>
+      <c r="D12" t="n">
+        <v>304.478</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.624</v>
+      </c>
+      <c r="F12" t="n">
+        <v>184.76</v>
+      </c>
+      <c r="G12" t="n">
+        <v>258.429</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-15.124</v>
+      </c>
+      <c r="I12" t="n">
+        <v>103.583</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-43.936</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.038</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.126</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3.053</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.906</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C13" t="n">
+        <v>61.84</v>
+      </c>
+      <c r="D13" t="n">
+        <v>131.66</v>
+      </c>
+      <c r="E13" t="n">
+        <v>112.904</v>
+      </c>
+      <c r="F13" t="n">
+        <v>82.352</v>
+      </c>
+      <c r="G13" t="n">
+        <v>104.586</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-20.563</v>
+      </c>
+      <c r="I13" t="n">
+        <v>99.59</v>
+      </c>
+      <c r="J13" t="n">
+        <v>20.932</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.352</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.361</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.176</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.888</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" t="n">
+        <v>167.791</v>
+      </c>
+      <c r="D14" t="n">
+        <v>164.852</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-1.751</v>
+      </c>
+      <c r="F14" t="n">
+        <v>88.83499999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>134.03</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-18.697</v>
+      </c>
+      <c r="I14" t="n">
+        <v>87.16500000000001</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-1.879</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.468</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.507</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" t="n">
+        <v>95.178</v>
+      </c>
+      <c r="D15" t="n">
+        <v>67.714</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-28.856</v>
+      </c>
+      <c r="F15" t="n">
+        <v>54.269</v>
+      </c>
+      <c r="G15" t="n">
+        <v>91.282</v>
+      </c>
+      <c r="H15" t="n">
+        <v>34.805</v>
+      </c>
+      <c r="I15" t="n">
+        <v>56.357</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.003</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.897</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.026</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.068</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16" t="n">
+        <v>60.679</v>
+      </c>
+      <c r="D16" t="n">
+        <v>42.15</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-30.536</v>
+      </c>
+      <c r="F16" t="n">
+        <v>35.211</v>
+      </c>
+      <c r="G16" t="n">
+        <v>54.239</v>
+      </c>
+      <c r="H16" t="n">
+        <v>28.682</v>
+      </c>
+      <c r="I16" t="n">
+        <v>31.775</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-9.76</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="B17" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" t="n">
+        <v>33.02</v>
+      </c>
+      <c r="D17" t="n">
+        <v>28.64</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-13.265</v>
+      </c>
+      <c r="F17" t="n">
+        <v>16.948</v>
+      </c>
+      <c r="G17" t="n">
+        <v>31.468</v>
+      </c>
+      <c r="H17" t="n">
+        <v>9.875999999999999</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15.332</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-9.538</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="B18" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" t="n">
+        <v>20.281</v>
+      </c>
+      <c r="D18" t="n">
+        <v>18.388</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-9.334</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>14.987</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-18.495</v>
+      </c>
+      <c r="I18" t="n">
+        <v>12.044</v>
+      </c>
+      <c r="J18" t="n">
+        <v>28.669</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C19" t="n">
+        <v>12.054</v>
+      </c>
+      <c r="D19" t="n">
+        <v>28.335</v>
+      </c>
+      <c r="E19" t="n">
+        <v>135.067</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3.293</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5.227</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-81.55200000000001</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.082</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-6.411</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.058</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A14:A18"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="2" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="4" min="3" width="9"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="8"/>
+    <col bestFit="1" customWidth="1" max="7" min="6" width="9"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="8"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="9"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="4" spans="1:15">
+      <c r="A1" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>226</v>
       </c>
       <c r="L1" s="3" t="s">
